--- a/WBS_PPLA01.xlsx
+++ b/WBS_PPLA01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tryviana.yusriska\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Task Number</t>
   </si>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +597,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -611,6 +614,9 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -624,6 +630,9 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/WBS_PPLA01.xlsx
+++ b/WBS_PPLA01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bravyto\Documents\GitHub\pplA01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>Task Number</t>
   </si>
@@ -68,27 +68,12 @@
     <t>Membuat user stories</t>
   </si>
   <si>
-    <t>Buat task,Estimasi  dan Sprint backlog</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>Membuat class diagram</t>
-  </si>
-  <si>
-    <t>Develop Authentication</t>
-  </si>
-  <si>
-    <t>Develop fitur Home</t>
-  </si>
-  <si>
-    <t>Develop fitur profil</t>
-  </si>
-  <si>
     <t>Testing fitur sprint 1</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>Develop fitur Food Calories</t>
   </si>
   <si>
-    <t>Develop fitur Food Recomendation</t>
-  </si>
-  <si>
     <t>Testing fitur sprint 2</t>
   </si>
   <si>
@@ -131,15 +113,9 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Sprint review, evaluation</t>
-  </si>
-  <si>
     <t>Develop fitur Reminder</t>
   </si>
   <si>
-    <t>Develop fitur Week Evaluation, Share</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -170,12 +146,6 @@
     <t>Duration (days)</t>
   </si>
   <si>
-    <t>2.3, 2.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>3.2, 3.3</t>
   </si>
   <si>
@@ -189,6 +159,33 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Buat task, Estimasi, Software model  dan Sprint backlog</t>
+  </si>
+  <si>
+    <t>Develop fitur profile</t>
+  </si>
+  <si>
+    <t>Develop fitur schedule</t>
+  </si>
+  <si>
+    <t>Sprint Review, Evaluation, &amp; Update task</t>
+  </si>
+  <si>
+    <t>Develop fitur home</t>
+  </si>
+  <si>
+    <t>Develop fitur week evaluation</t>
+  </si>
+  <si>
+    <t>Develop fitur food recommendation</t>
+  </si>
+  <si>
+    <t>2.2, 2.3, 2.4</t>
+  </si>
+  <si>
+    <t>Develop fitur share</t>
   </si>
 </sst>
 </file>
@@ -513,22 +510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -545,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -553,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -564,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -581,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -598,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -615,15 +612,15 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -632,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -643,12 +640,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -657,230 +654,238 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1">
         <v>11</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
